--- a/team_specific_matrix/Louisville_A.xlsx
+++ b/team_specific_matrix/Louisville_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1518518518518518</v>
+        <v>0.1736526946107785</v>
       </c>
       <c r="C2">
-        <v>0.6333333333333333</v>
+        <v>0.592814371257485</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01481481481481482</v>
+        <v>0.02095808383233533</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1296296296296296</v>
+        <v>0.1407185628742515</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07037037037037037</v>
+        <v>0.0718562874251497</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02325581395348837</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02906976744186046</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7848837209302325</v>
+        <v>0.7711442786069652</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1627906976744186</v>
+        <v>0.1641791044776119</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.675</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.225</v>
+        <v>0.2280701754385965</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01648351648351648</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03296703296703297</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3021978021978022</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01648351648351648</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1428571428571428</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="R6">
-        <v>0.04945054945054945</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="S6">
-        <v>0.3626373626373626</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1273885350318471</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03821656050955414</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1019108280254777</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1464968152866242</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006369426751592357</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1719745222929936</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="R7">
-        <v>0.08917197452229299</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="S7">
-        <v>0.3184713375796178</v>
+        <v>0.3224043715846995</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1363636363636364</v>
+        <v>0.1345291479820628</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0106951871657754</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06417112299465241</v>
+        <v>0.06502242152466367</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1016042780748663</v>
+        <v>0.1098654708520179</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01336898395721925</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1764705882352941</v>
+        <v>0.1614349775784753</v>
       </c>
       <c r="R8">
-        <v>0.05882352941176471</v>
+        <v>0.06053811659192825</v>
       </c>
       <c r="S8">
-        <v>0.4385026737967914</v>
+        <v>0.4417040358744395</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09826589595375723</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02312138728323699</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07514450867052024</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1040462427745665</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02312138728323699</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1734104046242775</v>
+        <v>0.1850220264317181</v>
       </c>
       <c r="R9">
-        <v>0.06936416184971098</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="S9">
-        <v>0.4335260115606936</v>
+        <v>0.4008810572687225</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1311300639658849</v>
+        <v>0.1277495769881557</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0255863539445629</v>
+        <v>0.02961082910321489</v>
       </c>
       <c r="E10">
-        <v>0.001066098081023454</v>
+        <v>0.0008460236886632825</v>
       </c>
       <c r="F10">
-        <v>0.06183368869936034</v>
+        <v>0.05668358714043993</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1130063965884861</v>
+        <v>0.11082910321489</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01066098081023454</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2281449893390192</v>
+        <v>0.2284263959390863</v>
       </c>
       <c r="R10">
-        <v>0.0650319829424307</v>
+        <v>0.05668358714043993</v>
       </c>
       <c r="S10">
-        <v>0.3635394456289979</v>
+        <v>0.3764805414551607</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1395348837209302</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06976744186046512</v>
+        <v>0.06692913385826772</v>
       </c>
       <c r="K11">
-        <v>0.1813953488372093</v>
+        <v>0.1889763779527559</v>
       </c>
       <c r="L11">
-        <v>0.5953488372093023</v>
+        <v>0.5748031496062992</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01395348837209302</v>
+        <v>0.01181102362204724</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7323943661971831</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.147887323943662</v>
+        <v>0.1635220125786163</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="L12">
-        <v>0.09154929577464789</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02816901408450704</v>
+        <v>0.03144654088050314</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.675</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.075</v>
+        <v>0.06382978723404255</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02531645569620253</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1772151898734177</v>
+        <v>0.1709844559585492</v>
       </c>
       <c r="I15">
-        <v>0.1012658227848101</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="J15">
-        <v>0.3227848101265823</v>
+        <v>0.310880829015544</v>
       </c>
       <c r="K15">
-        <v>0.08860759493670886</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0189873417721519</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05696202531645569</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2088607594936709</v>
+        <v>0.2487046632124352</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03684210526315789</v>
+        <v>0.02978723404255319</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1736842105263158</v>
+        <v>0.1617021276595745</v>
       </c>
       <c r="I16">
-        <v>0.09473684210526316</v>
+        <v>0.1106382978723404</v>
       </c>
       <c r="J16">
-        <v>0.3421052631578947</v>
+        <v>0.3702127659574468</v>
       </c>
       <c r="K16">
-        <v>0.09473684210526316</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02105263157894737</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="N16">
-        <v>0.005263157894736842</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="O16">
-        <v>0.08947368421052632</v>
+        <v>0.07659574468085106</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1421052631578947</v>
+        <v>0.1404255319148936</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03342618384401114</v>
+        <v>0.03837471783295711</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1587743732590529</v>
+        <v>0.1647855530474041</v>
       </c>
       <c r="I17">
-        <v>0.1030640668523677</v>
+        <v>0.09932279909706546</v>
       </c>
       <c r="J17">
-        <v>0.4233983286908078</v>
+        <v>0.4130925507900677</v>
       </c>
       <c r="K17">
-        <v>0.09192200557103064</v>
+        <v>0.09029345372460497</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01671309192200557</v>
+        <v>0.01580135440180587</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06685236768802229</v>
+        <v>0.0654627539503386</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1058495821727019</v>
+        <v>0.1128668171557562</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008620689655172414</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I18">
-        <v>0.103448275862069</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="J18">
-        <v>0.353448275862069</v>
+        <v>0.4148148148148148</v>
       </c>
       <c r="K18">
-        <v>0.08620689655172414</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03448275862068965</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04310344827586207</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1206896551724138</v>
+        <v>0.1037037037037037</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02403343782654127</v>
+        <v>0.0199501246882793</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2361546499477534</v>
+        <v>0.2269326683291771</v>
       </c>
       <c r="I19">
-        <v>0.09299895506792058</v>
+        <v>0.1039068994181214</v>
       </c>
       <c r="J19">
-        <v>0.3552769070010449</v>
+        <v>0.3615960099750624</v>
       </c>
       <c r="K19">
-        <v>0.1065830721003135</v>
+        <v>0.09808811305070657</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02403343782654127</v>
+        <v>0.02244389027431421</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008312551953449709</v>
       </c>
       <c r="O19">
-        <v>0.06478578892371996</v>
+        <v>0.06483790523690773</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0961337513061651</v>
+        <v>0.1014131338320864</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Louisville_A.xlsx
+++ b/team_specific_matrix/Louisville_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1736526946107785</v>
+        <v>0.1752873563218391</v>
       </c>
       <c r="C2">
-        <v>0.592814371257485</v>
+        <v>0.5804597701149425</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02095808383233533</v>
+        <v>0.02011494252873563</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1407185628742515</v>
+        <v>0.1408045977011494</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0718562874251497</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01990049751243781</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="C3">
-        <v>0.009950248756218905</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03482587064676617</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7711442786069652</v>
+        <v>0.775609756097561</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1641791044776119</v>
+        <v>0.1609756097560976</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07017543859649122</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7017543859649122</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2280701754385965</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07142857142857142</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01428571428571429</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02857142857142857</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3047619047619048</v>
+        <v>0.3073394495412844</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01904761904761905</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1571428571428571</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="R6">
-        <v>0.04761904761904762</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="S6">
-        <v>0.3571428571428572</v>
+        <v>0.3623853211009174</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1475409836065574</v>
+        <v>0.1436170212765958</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03278688524590164</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08743169398907104</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1420765027322404</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00546448087431694</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1693989071038251</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="R7">
-        <v>0.09289617486338798</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="S7">
-        <v>0.3224043715846995</v>
+        <v>0.3191489361702128</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1345291479820628</v>
+        <v>0.1330472103004292</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01345291479820628</v>
+        <v>0.01502145922746781</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06502242152466367</v>
+        <v>0.06866952789699571</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1098654708520179</v>
+        <v>0.1094420600858369</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01345291479820628</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1614349775784753</v>
+        <v>0.1652360515021459</v>
       </c>
       <c r="R8">
-        <v>0.06053811659192825</v>
+        <v>0.05793991416309013</v>
       </c>
       <c r="S8">
-        <v>0.4417040358744395</v>
+        <v>0.4377682403433477</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08370044052863436</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03083700440528634</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07048458149779736</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.13215859030837</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02643171806167401</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1850220264317181</v>
+        <v>0.180672268907563</v>
       </c>
       <c r="R9">
-        <v>0.07048458149779736</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S9">
-        <v>0.4008810572687225</v>
+        <v>0.3991596638655462</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1277495769881557</v>
+        <v>0.1295081967213115</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02961082910321489</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="E10">
-        <v>0.0008460236886632825</v>
+        <v>0.000819672131147541</v>
       </c>
       <c r="F10">
-        <v>0.05668358714043993</v>
+        <v>0.05491803278688524</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.11082910321489</v>
+        <v>0.110655737704918</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01269035532994924</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2284263959390863</v>
+        <v>0.230327868852459</v>
       </c>
       <c r="R10">
-        <v>0.05668358714043993</v>
+        <v>0.05491803278688524</v>
       </c>
       <c r="S10">
-        <v>0.3764805414551607</v>
+        <v>0.3778688524590164</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1574803149606299</v>
+        <v>0.1628787878787879</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06692913385826772</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K11">
-        <v>0.1889763779527559</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="L11">
-        <v>0.5748031496062992</v>
+        <v>0.5643939393939394</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01181102362204724</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7169811320754716</v>
+        <v>0.7116564417177914</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1635220125786163</v>
+        <v>0.1717791411042945</v>
       </c>
       <c r="K12">
-        <v>0.006289308176100629</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="L12">
-        <v>0.08176100628930817</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03144654088050314</v>
+        <v>0.03067484662576687</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7021276595744681</v>
+        <v>0.6875</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2340425531914894</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06382978723404255</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02072538860103627</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1709844559585492</v>
+        <v>0.1809045226130653</v>
       </c>
       <c r="I15">
-        <v>0.09844559585492228</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="J15">
-        <v>0.310880829015544</v>
+        <v>0.3115577889447236</v>
       </c>
       <c r="K15">
-        <v>0.08290155440414508</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02072538860103627</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04663212435233161</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2487046632124352</v>
+        <v>0.2412060301507538</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02978723404255319</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1617021276595745</v>
+        <v>0.1625</v>
       </c>
       <c r="I16">
-        <v>0.1106382978723404</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="J16">
-        <v>0.3702127659574468</v>
+        <v>0.3708333333333333</v>
       </c>
       <c r="K16">
-        <v>0.08936170212765958</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01702127659574468</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N16">
-        <v>0.00425531914893617</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="O16">
-        <v>0.07659574468085106</v>
+        <v>0.075</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1404255319148936</v>
+        <v>0.1375</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03837471783295711</v>
+        <v>0.03904555314533623</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1647855530474041</v>
+        <v>0.1691973969631236</v>
       </c>
       <c r="I17">
-        <v>0.09932279909706546</v>
+        <v>0.09761388286334056</v>
       </c>
       <c r="J17">
-        <v>0.4130925507900677</v>
+        <v>0.403470715835141</v>
       </c>
       <c r="K17">
-        <v>0.09029345372460497</v>
+        <v>0.09544468546637744</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01580135440180587</v>
+        <v>0.01735357917570499</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0654627539503386</v>
+        <v>0.06724511930585683</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1128668171557562</v>
+        <v>0.1106290672451193</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007407407407407408</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2222222222222222</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="I18">
-        <v>0.08888888888888889</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="J18">
-        <v>0.4148148148148148</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="K18">
-        <v>0.08888888888888889</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03703703703703703</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03703703703703703</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1037037037037037</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0199501246882793</v>
+        <v>0.01995211492418196</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2269326683291771</v>
+        <v>0.2266560255387071</v>
       </c>
       <c r="I19">
-        <v>0.1039068994181214</v>
+        <v>0.1077414205905826</v>
       </c>
       <c r="J19">
-        <v>0.3615960099750624</v>
+        <v>0.3583399840383081</v>
       </c>
       <c r="K19">
-        <v>0.09808811305070657</v>
+        <v>0.09497206703910614</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02244389027431421</v>
+        <v>0.02154828411811652</v>
       </c>
       <c r="N19">
-        <v>0.0008312551953449709</v>
+        <v>0.0007980845969672786</v>
       </c>
       <c r="O19">
-        <v>0.06483790523690773</v>
+        <v>0.06464485235434957</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1014131338320864</v>
+        <v>0.1053471667996808</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Louisville_A.xlsx
+++ b/team_specific_matrix/Louisville_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1752873563218391</v>
+        <v>0.1767955801104972</v>
       </c>
       <c r="C2">
-        <v>0.5804597701149425</v>
+        <v>0.580110497237569</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02011494252873563</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1408045977011494</v>
+        <v>0.1408839779005525</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08333333333333333</v>
+        <v>0.08011049723756906</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01951219512195122</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C3">
-        <v>0.00975609756097561</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03414634146341464</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.775609756097561</v>
+        <v>0.7710280373831776</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1609756097560976</v>
+        <v>0.1542056074766355</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06896551724137931</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6896551724137931</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2413793103448276</v>
+        <v>0.2615384615384616</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06880733944954129</v>
+        <v>0.06866952789699571</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01376146788990826</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02752293577981652</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3073394495412844</v>
+        <v>0.3175965665236051</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01834862385321101</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1559633027522936</v>
+        <v>0.1545064377682404</v>
       </c>
       <c r="R6">
-        <v>0.04587155963302753</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="S6">
-        <v>0.3623853211009174</v>
+        <v>0.3605150214592275</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1436170212765958</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03191489361702127</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09042553191489362</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1382978723404255</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005319148936170213</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1702127659574468</v>
+        <v>0.178743961352657</v>
       </c>
       <c r="R7">
-        <v>0.101063829787234</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="S7">
-        <v>0.3191489361702128</v>
+        <v>0.3429951690821256</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1330472103004292</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01502145922746781</v>
+        <v>0.01810865191146881</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06866952789699571</v>
+        <v>0.07645875251509054</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1094420600858369</v>
+        <v>0.1066398390342052</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0128755364806867</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1652360515021459</v>
+        <v>0.158953722334004</v>
       </c>
       <c r="R8">
-        <v>0.05793991416309013</v>
+        <v>0.06036217303822938</v>
       </c>
       <c r="S8">
-        <v>0.4377682403433477</v>
+        <v>0.4386317907444668</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764706</v>
+        <v>0.0859375</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02941176470588235</v>
+        <v>0.02734375</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07142857142857142</v>
+        <v>0.06640625</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.134453781512605</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02521008403361345</v>
+        <v>0.02734375</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.180672268907563</v>
+        <v>0.1796875</v>
       </c>
       <c r="R9">
-        <v>0.07142857142857142</v>
+        <v>0.07421875</v>
       </c>
       <c r="S9">
-        <v>0.3991596638655462</v>
+        <v>0.4140625</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1295081967213115</v>
+        <v>0.1272030651340996</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02868852459016394</v>
+        <v>0.03065134099616858</v>
       </c>
       <c r="E10">
-        <v>0.000819672131147541</v>
+        <v>0.0007662835249042146</v>
       </c>
       <c r="F10">
-        <v>0.05491803278688524</v>
+        <v>0.05210727969348659</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.110655737704918</v>
+        <v>0.1088122605363985</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01229508196721311</v>
+        <v>0.01302681992337165</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.230327868852459</v>
+        <v>0.2306513409961686</v>
       </c>
       <c r="R10">
-        <v>0.05491803278688524</v>
+        <v>0.05670498084291187</v>
       </c>
       <c r="S10">
-        <v>0.3778688524590164</v>
+        <v>0.3800766283524904</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1628787878787879</v>
+        <v>0.1655629139072848</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06818181818181818</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="K11">
-        <v>0.1931818181818182</v>
+        <v>0.2019867549668874</v>
       </c>
       <c r="L11">
-        <v>0.5643939393939394</v>
+        <v>0.5496688741721855</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01136363636363636</v>
+        <v>0.009933774834437087</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7116564417177914</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1717791411042945</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="K12">
-        <v>0.006134969325153374</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="L12">
-        <v>0.07975460122699386</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03067484662576687</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6875</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0625</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02512562814070352</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1809045226130653</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="I15">
-        <v>0.09547738693467336</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="J15">
-        <v>0.3115577889447236</v>
+        <v>0.3145539906103286</v>
       </c>
       <c r="K15">
-        <v>0.08040201005025126</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02010050251256281</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04522613065326633</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2412060301507538</v>
+        <v>0.2394366197183098</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02916666666666667</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1625</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="I16">
-        <v>0.1083333333333333</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="J16">
-        <v>0.3708333333333333</v>
+        <v>0.3849206349206349</v>
       </c>
       <c r="K16">
-        <v>0.09583333333333334</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N16">
-        <v>0.004166666666666667</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="O16">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1375</v>
+        <v>0.130952380952381</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03904555314533623</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1691973969631236</v>
+        <v>0.1727642276422764</v>
       </c>
       <c r="I17">
-        <v>0.09761388286334056</v>
+        <v>0.09959349593495935</v>
       </c>
       <c r="J17">
-        <v>0.403470715835141</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="K17">
-        <v>0.09544468546637744</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01735357917570499</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06724511930585683</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1106290672451193</v>
+        <v>0.1077235772357724</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007246376811594203</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2173913043478261</v>
+        <v>0.2066666666666667</v>
       </c>
       <c r="I18">
-        <v>0.08695652173913043</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="J18">
-        <v>0.4202898550724637</v>
+        <v>0.4</v>
       </c>
       <c r="K18">
-        <v>0.08695652173913043</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03623188405797102</v>
+        <v>0.04</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03623188405797102</v>
+        <v>0.04</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.108695652173913</v>
+        <v>0.1066666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01995211492418196</v>
+        <v>0.02008928571428572</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2266560255387071</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="I19">
-        <v>0.1077414205905826</v>
+        <v>0.1078869047619048</v>
       </c>
       <c r="J19">
-        <v>0.3583399840383081</v>
+        <v>0.3556547619047619</v>
       </c>
       <c r="K19">
-        <v>0.09497206703910614</v>
+        <v>0.103422619047619</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02154828411811652</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N19">
-        <v>0.0007980845969672786</v>
+        <v>0.000744047619047619</v>
       </c>
       <c r="O19">
-        <v>0.06464485235434957</v>
+        <v>0.06324404761904762</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1053471667996808</v>
+        <v>0.1019345238095238</v>
       </c>
     </row>
   </sheetData>
